--- a/agiledoc.xlsx
+++ b/agiledoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdhi Saxena\Documents\Mugdhi S\Infosys Springboard\internship\project files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdhi Saxena\Documents\Mugdhi S\Infosys Springboard\internship\ANPR_and_ATCC_for_Smart_Traffic_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="166">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -78,9 +78,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Kurri Sai Mahitha</t>
-  </si>
-  <si>
     <t>3- Completed</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
   </si>
   <si>
     <t>Classifiying The Objects(ie; Vehicles and Its Number Plates) In The Processed Videos</t>
-  </si>
-  <si>
-    <t>Mogili Greeshma</t>
   </si>
   <si>
     <t>########</t>
@@ -1381,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1391,7 +1385,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.4">
+    <row r="1" spans="1:8" ht="45.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,11 +1430,11 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>164</v>
+      <c r="G2" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6">
@@ -1451,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -1462,375 +1456,375 @@
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>164</v>
+      <c r="G3" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="151.80000000000001">
       <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="151.80000000000001">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="151.80000000000001">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="151.80000000000001">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="151.80000000000001">
       <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="151.80000000000001">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="151.80000000000001">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="220.8">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>164</v>
+      <c r="G11" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="151.80000000000001">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="151.80000000000001">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="151.80000000000001">
       <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="151.80000000000001">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="151.80000000000001">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="151.80000000000001">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>164</v>
+        <v>19</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1842,15 +1836,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1880,70 +1874,70 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="E2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="G2" s="57" t="s">
         <v>57</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>58</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2003,7 +1997,7 @@
     </row>
     <row r="4" spans="1:23" ht="15.6" customHeight="1">
       <c r="A4" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2033,10 +2027,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D5" s="19">
         <v>45630</v>
@@ -2044,14 +2038,14 @@
       <c r="E5" s="19">
         <v>45632</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>164</v>
+      <c r="F5" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="23">
         <v>5</v>
@@ -2082,10 +2076,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="19">
         <v>45635</v>
@@ -2093,14 +2087,14 @@
       <c r="E6" s="19">
         <v>45637</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>164</v>
+      <c r="F6" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="23">
         <v>4</v>
@@ -2126,13 +2120,13 @@
     </row>
     <row r="7" spans="1:23" ht="54">
       <c r="A7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="19">
         <v>45638</v>
@@ -2140,14 +2134,14 @@
       <c r="E7" s="19">
         <v>45639</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>164</v>
+      <c r="F7" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="23">
         <v>6</v>
@@ -2175,13 +2169,13 @@
     </row>
     <row r="8" spans="1:23" ht="67.2">
       <c r="A8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="19">
         <v>45642</v>
@@ -2189,14 +2183,14 @@
       <c r="E8" s="19">
         <v>45643</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>164</v>
+      <c r="F8" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="23">
         <v>4</v>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="9" spans="1:23" ht="15.6" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -2249,13 +2243,13 @@
     </row>
     <row r="10" spans="1:23" ht="66">
       <c r="A10" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="19">
         <v>45644</v>
@@ -2263,14 +2257,14 @@
       <c r="E10" s="19">
         <v>45645</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>164</v>
+      <c r="F10" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="23">
         <v>4</v>
@@ -2294,13 +2288,13 @@
     </row>
     <row r="11" spans="1:23" ht="66">
       <c r="A11" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="19">
         <v>45646</v>
@@ -2308,14 +2302,14 @@
       <c r="E11" s="19">
         <v>45649</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>164</v>
+      <c r="F11" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="23">
         <v>5</v>
@@ -2339,13 +2333,13 @@
     </row>
     <row r="12" spans="1:23" ht="79.2">
       <c r="A12" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="19">
         <v>45650</v>
@@ -2353,14 +2347,14 @@
       <c r="E12" s="19">
         <v>45652</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>164</v>
+      <c r="F12" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="23">
         <v>4</v>
@@ -2384,13 +2378,13 @@
     </row>
     <row r="13" spans="1:23" ht="118.8">
       <c r="A13" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="19">
         <v>45653</v>
@@ -2398,14 +2392,14 @@
       <c r="E13" s="19">
         <v>45656</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>164</v>
+      <c r="F13" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="23">
         <v>5</v>
@@ -2429,13 +2423,13 @@
     </row>
     <row r="14" spans="1:23" ht="52.8">
       <c r="A14" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="19">
         <v>45657</v>
@@ -2443,14 +2437,14 @@
       <c r="E14" s="19">
         <v>45659</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>164</v>
+      <c r="F14" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="23">
         <v>5</v>
@@ -2474,13 +2468,13 @@
     </row>
     <row r="15" spans="1:23" ht="52.8">
       <c r="A15" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="19">
         <v>45660</v>
@@ -2488,14 +2482,14 @@
       <c r="E15" s="19">
         <v>45664</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>164</v>
+      <c r="F15" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="23">
         <v>3</v>
@@ -2519,13 +2513,13 @@
     </row>
     <row r="16" spans="1:23" ht="52.8">
       <c r="A16" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="19">
         <v>45665</v>
@@ -2533,14 +2527,14 @@
       <c r="E16" s="19">
         <v>45666</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>164</v>
+      <c r="F16" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="23">
         <v>4</v>
@@ -2564,13 +2558,13 @@
     </row>
     <row r="17" spans="1:23" ht="66">
       <c r="A17" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="19">
         <v>45667</v>
@@ -2578,14 +2572,14 @@
       <c r="E17" s="19">
         <v>45670</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>164</v>
+      <c r="F17" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="23">
         <v>4</v>
@@ -2609,13 +2603,13 @@
     </row>
     <row r="18" spans="1:23" ht="66">
       <c r="A18" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="19">
         <v>45671</v>
@@ -2623,14 +2617,14 @@
       <c r="E18" s="19">
         <v>45672</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>164</v>
+      <c r="F18" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="23">
         <v>5</v>
@@ -2654,13 +2648,13 @@
     </row>
     <row r="19" spans="1:23" ht="145.19999999999999">
       <c r="A19" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="19">
         <v>45673</v>
@@ -2668,14 +2662,14 @@
       <c r="E19" s="19">
         <v>45674</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>164</v>
+      <c r="F19" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="24">
         <v>6</v>
@@ -2699,7 +2693,7 @@
     </row>
     <row r="20" spans="1:23" ht="15.6" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2726,13 +2720,13 @@
     </row>
     <row r="21" spans="1:23" ht="52.8">
       <c r="A21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="19">
         <v>45677</v>
@@ -2740,14 +2734,14 @@
       <c r="E21" s="19">
         <v>45678</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>164</v>
+      <c r="F21" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="23">
         <v>3</v>
@@ -2771,13 +2765,13 @@
     </row>
     <row r="22" spans="1:23" ht="66">
       <c r="A22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="19">
         <v>45680</v>
@@ -2785,14 +2779,14 @@
       <c r="E22" s="19">
         <v>45681</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>164</v>
+      <c r="F22" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="23">
         <v>6</v>
@@ -2818,13 +2812,13 @@
     </row>
     <row r="23" spans="1:23" ht="66">
       <c r="A23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="19">
         <v>45651</v>
@@ -2832,14 +2826,14 @@
       <c r="E23" s="19">
         <v>45682</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>164</v>
+      <c r="F23" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="23">
         <v>4</v>
@@ -2863,13 +2857,13 @@
     </row>
     <row r="24" spans="1:23" ht="92.4">
       <c r="A24" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="19">
         <v>45684</v>
@@ -2877,14 +2871,14 @@
       <c r="E24" s="19">
         <v>45684</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>164</v>
+      <c r="F24" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="23">
         <v>6</v>
@@ -2910,13 +2904,13 @@
     </row>
     <row r="25" spans="1:23" ht="39.6">
       <c r="A25" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="19">
         <v>45685</v>
@@ -2924,14 +2918,14 @@
       <c r="E25" s="19">
         <v>45685</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>164</v>
+      <c r="F25" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="23">
         <v>3</v>
@@ -2955,28 +2949,28 @@
     </row>
     <row r="26" spans="1:23" ht="171.6">
       <c r="A26" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="23">
         <v>6</v>
@@ -3000,28 +2994,28 @@
     </row>
     <row r="27" spans="1:23" ht="118.8">
       <c r="A27" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="20" t="s">
         <v>164</v>
       </c>
+      <c r="F27" s="47" t="s">
+        <v>165</v>
+      </c>
       <c r="G27" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="23">
         <v>5</v>
@@ -3045,28 +3039,28 @@
     </row>
     <row r="28" spans="1:23" ht="132">
       <c r="A28" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="23">
         <v>5</v>
@@ -3092,7 +3086,7 @@
     </row>
     <row r="29" spans="1:23" ht="15.6" customHeight="1">
       <c r="A29" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -3119,13 +3113,13 @@
     </row>
     <row r="30" spans="1:23" ht="92.4">
       <c r="A30" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="28">
         <v>45642</v>
@@ -3133,14 +3127,14 @@
       <c r="E30" s="28">
         <v>45644</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>164</v>
+      <c r="F30" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="23">
         <v>9</v>
@@ -3168,13 +3162,13 @@
     </row>
     <row r="31" spans="1:23" ht="66">
       <c r="A31" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="28">
         <v>45644</v>
@@ -3182,14 +3176,14 @@
       <c r="E31" s="28">
         <v>45645</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>164</v>
+      <c r="F31" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="23">
         <v>6</v>
@@ -3213,13 +3207,13 @@
     </row>
     <row r="32" spans="1:23" ht="158.4">
       <c r="A32" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="28">
         <v>45645</v>
@@ -3227,14 +3221,14 @@
       <c r="E32" s="29">
         <v>45646</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>164</v>
+      <c r="F32" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="23">
         <v>8</v>
@@ -3260,13 +3254,13 @@
     </row>
     <row r="33" spans="1:23" ht="118.8">
       <c r="A33" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="D33" s="28">
         <v>45649</v>
@@ -3274,14 +3268,14 @@
       <c r="E33" s="29">
         <v>45652</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>164</v>
+      <c r="F33" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="23">
         <v>8</v>
@@ -3309,13 +3303,13 @@
     </row>
     <row r="34" spans="1:23" ht="26.4">
       <c r="A34" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="28">
         <v>45652</v>
@@ -3323,14 +3317,14 @@
       <c r="E34" s="28">
         <v>45653</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>164</v>
+      <c r="F34" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="23">
         <v>5</v>
@@ -3356,7 +3350,7 @@
       <c r="A35" s="31"/>
       <c r="B35" s="17"/>
       <c r="C35" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
@@ -3383,7 +3377,7 @@
       <c r="A36" s="31"/>
       <c r="B36" s="17"/>
       <c r="C36" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
@@ -3442,16 +3436,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>118</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -3465,10 +3459,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>120</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3482,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3493,16 +3487,16 @@
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="36">
         <v>16</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3510,16 +3504,16 @@
     </row>
     <row r="5" spans="1:7" ht="31.2">
       <c r="A5" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="36">
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>126</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3527,16 +3521,16 @@
     </row>
     <row r="6" spans="1:7" ht="62.4">
       <c r="A6" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="36">
         <v>23</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>128</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3544,16 +3538,16 @@
     </row>
     <row r="7" spans="1:7" ht="62.4">
       <c r="A7" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="36">
         <v>25</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>129</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>130</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3561,16 +3555,16 @@
     </row>
     <row r="8" spans="1:7" ht="46.8">
       <c r="A8" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="36">
         <v>29</v>
       </c>
       <c r="C8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>132</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -3578,16 +3572,16 @@
     </row>
     <row r="9" spans="1:7" ht="78">
       <c r="A9" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="36">
         <v>31</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3595,16 +3589,16 @@
     </row>
     <row r="10" spans="1:7" ht="62.4">
       <c r="A10" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="36">
         <v>36</v>
       </c>
       <c r="C10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>134</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>135</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3612,16 +3606,16 @@
     </row>
     <row r="11" spans="1:7" ht="93.6">
       <c r="A11" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="36">
         <v>37</v>
       </c>
       <c r="C11" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>136</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>137</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3629,16 +3623,16 @@
     </row>
     <row r="12" spans="1:7" ht="46.8">
       <c r="A12" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="36">
         <v>38</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3646,16 +3640,16 @@
     </row>
     <row r="13" spans="1:7" ht="36">
       <c r="A13" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="36">
         <v>43</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3663,16 +3657,16 @@
     </row>
     <row r="14" spans="1:7" ht="62.4">
       <c r="A14" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="36">
         <v>48</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -3680,16 +3674,16 @@
     </row>
     <row r="15" spans="1:7" ht="46.8">
       <c r="A15" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="36">
         <v>51</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3697,16 +3691,16 @@
     </row>
     <row r="16" spans="1:7" ht="46.8">
       <c r="A16" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="36">
         <v>58</v>
       </c>
       <c r="C16" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -3721,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3732,16 +3726,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.399999999999999">
       <c r="A1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>118</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -3755,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>120</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3772,10 +3766,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3783,16 +3777,16 @@
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="36">
         <v>16</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3800,16 +3794,16 @@
     </row>
     <row r="5" spans="1:7" ht="31.2">
       <c r="A5" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="36">
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>126</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3817,16 +3811,16 @@
     </row>
     <row r="6" spans="1:7" ht="62.4">
       <c r="A6" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="36">
         <v>23</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>128</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3834,16 +3828,16 @@
     </row>
     <row r="7" spans="1:7" ht="62.4">
       <c r="A7" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="36">
         <v>25</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>129</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>130</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3851,16 +3845,16 @@
     </row>
     <row r="8" spans="1:7" ht="108">
       <c r="A8" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="36">
         <v>29</v>
       </c>
       <c r="C8" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>132</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -3868,16 +3862,16 @@
     </row>
     <row r="9" spans="1:7" ht="144">
       <c r="A9" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="36">
         <v>31</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3885,16 +3879,16 @@
     </row>
     <row r="10" spans="1:7" ht="72">
       <c r="A10" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="36">
         <v>36</v>
       </c>
       <c r="C10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>134</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>135</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3902,16 +3896,16 @@
     </row>
     <row r="11" spans="1:7" ht="93.6">
       <c r="A11" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="36">
         <v>37</v>
       </c>
       <c r="C11" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>136</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>137</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3919,16 +3913,16 @@
     </row>
     <row r="12" spans="1:7" ht="46.8">
       <c r="A12" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="36">
         <v>38</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3936,16 +3930,16 @@
     </row>
     <row r="13" spans="1:7" ht="126">
       <c r="A13" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="36">
         <v>43</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3953,16 +3947,16 @@
     </row>
     <row r="14" spans="1:7" ht="126">
       <c r="A14" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="36">
         <v>48</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -3970,16 +3964,16 @@
     </row>
     <row r="15" spans="1:7" ht="108">
       <c r="A15" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="36">
         <v>51</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3987,16 +3981,16 @@
     </row>
     <row r="16" spans="1:7" ht="46.8">
       <c r="A16" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="36">
         <v>58</v>
       </c>
       <c r="C16" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -4011,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4023,31 +4017,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>151</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>152</v>
       </c>
       <c r="J1" s="45"/>
     </row>
@@ -4065,19 +4059,19 @@
         <v>45641</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>155</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="J2" s="10"/>
     </row>
@@ -4086,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="46">
         <v>45644</v>
@@ -4095,19 +4089,19 @@
         <v>45655</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="H3" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="I3" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>160</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -4116,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="46">
         <v>45628</v>
@@ -4125,19 +4119,19 @@
         <v>45639</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>162</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4146,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="46">
         <v>45642</v>
@@ -4155,19 +4149,19 @@
         <v>45660</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>142</v>
-      </c>
       <c r="I5" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" s="10"/>
     </row>
